--- a/data/trans_dic/P3A$otraSIcobra-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P3A$otraSIcobra-Clase-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.0576858130476816</v>
+        <v>0.05768581304768159</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.07018445657412213</v>
+        <v>0.07018445657412212</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.06355666748500069</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04159278146422545</v>
+        <v>0.041836448198951</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05047976304748401</v>
+        <v>0.05224266776394985</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05092501110520354</v>
+        <v>0.05155350280068431</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07877497621101996</v>
+        <v>0.07831587053673589</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09058763431789194</v>
+        <v>0.09190081932754965</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07915954958398637</v>
+        <v>0.07939674024623</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02040399975433539</v>
+        <v>0.02115565178233265</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02470592617624137</v>
+        <v>0.02506077379387324</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02560419519898517</v>
+        <v>0.0263064094671437</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05196982537450835</v>
+        <v>0.05399854720452121</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05391732005044009</v>
+        <v>0.05426750079869392</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04741968889282047</v>
+        <v>0.04736403377617938</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.01910587679874176</v>
+        <v>0.01910587679874175</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.03951337503761117</v>
+        <v>0.03951337503761116</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.02489860650792317</v>
+        <v>0.02489860650792318</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.009385389249867496</v>
+        <v>0.009665260593145007</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02075511268572287</v>
+        <v>0.02184021575022824</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01622976983002635</v>
+        <v>0.01653958096657523</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03595894797590619</v>
+        <v>0.03816126154299092</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06758655899146399</v>
+        <v>0.06667375923187638</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03833870498820135</v>
+        <v>0.03913901151363203</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01600888873903163</v>
+        <v>0.01556705723808685</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01322718821682122</v>
+        <v>0.01245082320346913</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01602812589005439</v>
+        <v>0.01616617146984437</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03404253816143375</v>
+        <v>0.03434916212304542</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02742397548519133</v>
+        <v>0.02550815230521089</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02815612165840947</v>
+        <v>0.02821155806564356</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.008732892892908883</v>
+        <v>0.008270137222077928</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02091623227530943</v>
+        <v>0.02153059073554306</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01828988678217191</v>
+        <v>0.01780935916450525</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02686380090933205</v>
+        <v>0.02813692577713071</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03810920311260599</v>
+        <v>0.03989840755550148</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03138132464974439</v>
+        <v>0.03091685375702207</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>0.0391771184645365</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.03767142699444312</v>
+        <v>0.03767142699444313</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.006103886634240008</v>
+        <v>0.004230459780569975</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02958384854991903</v>
+        <v>0.02869659972572729</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02782548093878474</v>
+        <v>0.02731087514271615</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1015822094643697</v>
+        <v>0.09126502933421694</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05212178720912794</v>
+        <v>0.05255905264029924</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05261256215555025</v>
+        <v>0.05306807516073117</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.03590521522706346</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.03250989911782322</v>
+        <v>0.03250989911782323</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02370782639928151</v>
+        <v>0.02357241412627505</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03126486962136521</v>
+        <v>0.03105196670227087</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02913842362781279</v>
+        <v>0.02893154492550394</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03526409689647868</v>
+        <v>0.03582183845200924</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04084975828933957</v>
+        <v>0.04149388252178444</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.0370177962522437</v>
+        <v>0.03669149580583221</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>22902</v>
+        <v>23036</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>24621</v>
+        <v>25481</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>52878</v>
+        <v>53531</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>43375</v>
+        <v>43122</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>44183</v>
+        <v>44823</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>82195</v>
+        <v>82442</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9850</v>
+        <v>10212</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10454</v>
+        <v>10604</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>23194</v>
+        <v>23830</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>25087</v>
+        <v>26067</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>22815</v>
+        <v>22963</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>42956</v>
+        <v>42906</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4426</v>
+        <v>4558</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3880</v>
+        <v>4083</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>10688</v>
+        <v>10892</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16959</v>
+        <v>17997</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>12634</v>
+        <v>12463</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>25248</v>
+        <v>25775</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>18120</v>
+        <v>17619</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>11391</v>
+        <v>10723</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>31945</v>
+        <v>32220</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>38531</v>
+        <v>38878</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>23618</v>
+        <v>21968</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>56117</v>
+        <v>56227</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4960</v>
+        <v>4697</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>17378</v>
+        <v>17889</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>25584</v>
+        <v>24912</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>15258</v>
+        <v>15981</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>31663</v>
+        <v>33150</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>43897</v>
+        <v>43247</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1448</v>
+        <v>1004</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>24977</v>
+        <v>24228</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>30094</v>
+        <v>29537</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>24098</v>
+        <v>21651</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>44005</v>
+        <v>44375</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>56901</v>
+        <v>57394</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>81602</v>
+        <v>81136</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>113621</v>
+        <v>112847</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>206188</v>
+        <v>204724</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>121379</v>
+        <v>123299</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>148454</v>
+        <v>150795</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>261943</v>
+        <v>259634</v>
       </c>
     </row>
     <row r="32">
